--- a/faq_mod.xlsx
+++ b/faq_mod.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">3_LEAF_121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPONSE_004</t>
   </si>
   <si>
     <t xml:space="preserve">3_LEAF_123</t>
@@ -267,10 +264,10 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="13.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.98"/>
@@ -408,19 +405,17 @@
       <c r="C5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,16 +423,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,10 +440,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,11 +451,11 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,13 +463,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,13 +477,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
